--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf2</t>
+  </si>
+  <si>
+    <t>Fgfrl1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf2</t>
-  </si>
-  <si>
-    <t>Fgfrl1</t>
   </si>
 </sst>
 </file>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H2">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9048976666666667</v>
+        <v>0.9024219999999999</v>
       </c>
       <c r="N2">
-        <v>2.714693</v>
+        <v>2.707266</v>
       </c>
       <c r="O2">
-        <v>0.1425809899086412</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="P2">
-        <v>0.1425809899086412</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="Q2">
-        <v>0.3601302684823334</v>
+        <v>0.9148973825353331</v>
       </c>
       <c r="R2">
-        <v>3.241172416341</v>
+        <v>8.234076442817999</v>
       </c>
       <c r="S2">
-        <v>0.003825414737805826</v>
+        <v>0.01125940266496581</v>
       </c>
       <c r="T2">
-        <v>0.003825414737805827</v>
+        <v>0.01125940266496582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H3">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.499938999999999</v>
       </c>
       <c r="O3">
-        <v>0.3939114761317116</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="P3">
-        <v>0.3939114761317116</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="Q3">
-        <v>0.9949394077603333</v>
+        <v>2.534540218905222</v>
       </c>
       <c r="R3">
-        <v>8.954454669842999</v>
+        <v>22.810861970147</v>
       </c>
       <c r="S3">
-        <v>0.01056855312303995</v>
+        <v>0.03119192320358658</v>
       </c>
       <c r="T3">
-        <v>0.01056855312303995</v>
+        <v>0.0311919232035866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H4">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.316536</v>
+        <v>0.3134460000000001</v>
       </c>
       <c r="N4">
-        <v>0.949608</v>
+        <v>0.9403380000000001</v>
       </c>
       <c r="O4">
-        <v>0.04987527085573395</v>
+        <v>0.05551278802847185</v>
       </c>
       <c r="P4">
-        <v>0.04987527085573395</v>
+        <v>0.05551278802847184</v>
       </c>
       <c r="Q4">
-        <v>0.125974680744</v>
+        <v>0.317779181986</v>
       </c>
       <c r="R4">
-        <v>1.133772126696</v>
+        <v>2.860012637874</v>
       </c>
       <c r="S4">
-        <v>0.001338141896095918</v>
+        <v>0.003910825232233784</v>
       </c>
       <c r="T4">
-        <v>0.001338141896095918</v>
+        <v>0.003910825232233785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H5">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.464842666666667</v>
+        <v>1.673665666666666</v>
       </c>
       <c r="N5">
-        <v>7.394528</v>
+        <v>5.020996999999999</v>
       </c>
       <c r="O5">
-        <v>0.3883750840876537</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="P5">
-        <v>0.3883750840876537</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="Q5">
-        <v>0.9809556196373335</v>
+        <v>1.696802978731222</v>
       </c>
       <c r="R5">
-        <v>8.828600576736001</v>
+        <v>15.271226808581</v>
       </c>
       <c r="S5">
-        <v>0.01042001301448003</v>
+        <v>0.0208821102184216</v>
       </c>
       <c r="T5">
-        <v>0.01042001301448003</v>
+        <v>0.0208821102184216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,75 +776,75 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H6">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.160296</v>
+        <v>0.1246176666666667</v>
       </c>
       <c r="N6">
-        <v>0.480888</v>
+        <v>0.373853</v>
       </c>
       <c r="O6">
-        <v>0.02525717901625954</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="P6">
-        <v>0.02525717901625954</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="Q6">
-        <v>0.063794441784</v>
+        <v>0.1263404228298889</v>
       </c>
       <c r="R6">
-        <v>0.574149976056</v>
+        <v>1.137063805469</v>
       </c>
       <c r="S6">
-        <v>0.000677644228070713</v>
+        <v>0.001554838521410702</v>
       </c>
       <c r="T6">
-        <v>0.0006776442280707131</v>
+        <v>0.001554838521410702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.34891866666666</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H7">
-        <v>34.04675599999999</v>
+        <v>3.041473</v>
       </c>
       <c r="I7">
-        <v>0.7650877144845757</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J7">
-        <v>0.7650877144845759</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.9048976666666667</v>
+        <v>0.1322436666666667</v>
       </c>
       <c r="N7">
-        <v>2.714693</v>
+        <v>0.396731</v>
       </c>
       <c r="O7">
-        <v>0.1425809899086412</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="P7">
-        <v>0.1425809899086412</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="Q7">
-        <v>10.26961002065644</v>
+        <v>0.1340718471958889</v>
       </c>
       <c r="R7">
-        <v>92.42649018590798</v>
+        <v>1.206646624763</v>
       </c>
       <c r="S7">
-        <v>0.1090869636981507</v>
+        <v>0.001649987137826336</v>
       </c>
       <c r="T7">
-        <v>0.1090869636981507</v>
+        <v>0.001649987137826336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J8">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.499979666666666</v>
+        <v>0.9024219999999999</v>
       </c>
       <c r="N8">
-        <v>7.499938999999999</v>
+        <v>2.707266</v>
       </c>
       <c r="O8">
-        <v>0.3939114761317116</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="P8">
-        <v>0.3939114761317116</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="Q8">
-        <v>28.37206590532044</v>
+        <v>10.24151388101067</v>
       </c>
       <c r="R8">
-        <v>255.3485931478839</v>
+        <v>92.17362492909599</v>
       </c>
       <c r="S8">
-        <v>0.3013768309828567</v>
+        <v>0.1260396312049592</v>
       </c>
       <c r="T8">
-        <v>0.3013768309828568</v>
+        <v>0.1260396312049593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J9">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.316536</v>
+        <v>2.499979666666666</v>
       </c>
       <c r="N9">
-        <v>0.949608</v>
+        <v>7.499938999999999</v>
       </c>
       <c r="O9">
-        <v>0.04987527085573395</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="P9">
-        <v>0.04987527085573395</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="Q9">
-        <v>3.592341319071999</v>
+        <v>28.37206590532045</v>
       </c>
       <c r="R9">
-        <v>32.33107187164799</v>
+        <v>255.348593147884</v>
       </c>
       <c r="S9">
-        <v>0.03815895698831265</v>
+        <v>0.3491675903364098</v>
       </c>
       <c r="T9">
-        <v>0.03815895698831266</v>
+        <v>0.3491675903364098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H10">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I10">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J10">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.464842666666667</v>
+        <v>0.3134460000000001</v>
       </c>
       <c r="N10">
-        <v>7.394528</v>
+        <v>0.9403380000000001</v>
       </c>
       <c r="O10">
-        <v>0.3883750840876537</v>
+        <v>0.05551278802847185</v>
       </c>
       <c r="P10">
-        <v>0.3883750840876537</v>
+        <v>0.05551278802847184</v>
       </c>
       <c r="Q10">
-        <v>27.97329895012977</v>
+        <v>3.557273160392001</v>
       </c>
       <c r="R10">
-        <v>251.759690551168</v>
+        <v>32.015458443528</v>
       </c>
       <c r="S10">
-        <v>0.2971410054473779</v>
+        <v>0.04377842987279749</v>
       </c>
       <c r="T10">
-        <v>0.2971410054473779</v>
+        <v>0.04377842987279749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,170 +1101,170 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H11">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I11">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J11">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.160296</v>
+        <v>1.673665666666666</v>
       </c>
       <c r="N11">
-        <v>0.480888</v>
+        <v>5.020996999999999</v>
       </c>
       <c r="O11">
-        <v>0.02525717901625954</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="P11">
-        <v>0.02525717901625954</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="Q11">
-        <v>1.819186266592</v>
+        <v>18.99429552619245</v>
       </c>
       <c r="R11">
-        <v>16.372676399328</v>
+        <v>170.948659735732</v>
       </c>
       <c r="S11">
-        <v>0.01932395736787779</v>
+        <v>0.2337578243738172</v>
       </c>
       <c r="T11">
-        <v>0.0193239573678778</v>
+        <v>0.2337578243738173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H12">
+        <v>34.046756</v>
+      </c>
+      <c r="I12">
+        <v>0.7886188286984264</v>
+      </c>
+      <c r="J12">
+        <v>0.7886188286984265</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>0.119535</v>
-      </c>
-      <c r="H12">
-        <v>0.358605</v>
-      </c>
-      <c r="I12">
-        <v>0.008058455843861933</v>
-      </c>
-      <c r="J12">
-        <v>0.008058455843861934</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>0.9048976666666667</v>
+        <v>0.1246176666666667</v>
       </c>
       <c r="N12">
-        <v>2.714693</v>
+        <v>0.373853</v>
       </c>
       <c r="O12">
-        <v>0.1425809899086412</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="P12">
-        <v>0.1425809899086412</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="Q12">
-        <v>0.108166942585</v>
+        <v>1.414275763429778</v>
       </c>
       <c r="R12">
-        <v>0.973502483265</v>
+        <v>12.728481870868</v>
       </c>
       <c r="S12">
-        <v>0.001148982611352909</v>
+        <v>0.01740512171499499</v>
       </c>
       <c r="T12">
-        <v>0.001148982611352909</v>
+        <v>0.01740512171499499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.119535</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H13">
-        <v>0.358605</v>
+        <v>34.046756</v>
       </c>
       <c r="I13">
-        <v>0.008058455843861933</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J13">
-        <v>0.008058455843861934</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>2.499979666666666</v>
+        <v>0.1322436666666667</v>
       </c>
       <c r="N13">
-        <v>7.499938999999999</v>
+        <v>0.396731</v>
       </c>
       <c r="O13">
-        <v>0.3939114761317116</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="P13">
-        <v>0.3939114761317116</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="Q13">
-        <v>0.298835069455</v>
+        <v>1.500822617181778</v>
       </c>
       <c r="R13">
-        <v>2.689515625095</v>
+        <v>13.507403554636</v>
       </c>
       <c r="S13">
-        <v>0.003174318236797872</v>
+        <v>0.01847023119544762</v>
       </c>
       <c r="T13">
-        <v>0.003174318236797872</v>
+        <v>0.01847023119544762</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H14">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I14">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J14">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.316536</v>
+        <v>0.9024219999999999</v>
       </c>
       <c r="N14">
-        <v>0.949608</v>
+        <v>2.707266</v>
       </c>
       <c r="O14">
-        <v>0.04987527085573395</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="P14">
-        <v>0.04987527085573395</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="Q14">
-        <v>0.03783713076</v>
+        <v>1.338617600342</v>
       </c>
       <c r="R14">
-        <v>0.34053417684</v>
+        <v>12.047558403078</v>
       </c>
       <c r="S14">
-        <v>0.000401917667891586</v>
+        <v>0.01647401650105692</v>
       </c>
       <c r="T14">
-        <v>0.0004019176678915861</v>
+        <v>0.01647401650105692</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H15">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I15">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J15">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.464842666666667</v>
+        <v>2.499979666666666</v>
       </c>
       <c r="N15">
-        <v>7.394528</v>
+        <v>7.499938999999999</v>
       </c>
       <c r="O15">
-        <v>0.3883750840876537</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="P15">
-        <v>0.3883750840876537</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="Q15">
-        <v>0.29463496816</v>
+        <v>3.708372338326333</v>
       </c>
       <c r="R15">
-        <v>2.65171471344</v>
+        <v>33.375351044937</v>
       </c>
       <c r="S15">
-        <v>0.003129703465976522</v>
+        <v>0.045637967914095</v>
       </c>
       <c r="T15">
-        <v>0.003129703465976523</v>
+        <v>0.045637967914095</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H16">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I16">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J16">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,42 +1429,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.160296</v>
+        <v>0.3134460000000001</v>
       </c>
       <c r="N16">
-        <v>0.480888</v>
+        <v>0.9403380000000001</v>
       </c>
       <c r="O16">
-        <v>0.02525717901625954</v>
+        <v>0.05551278802847185</v>
       </c>
       <c r="P16">
-        <v>0.02525717901625954</v>
+        <v>0.05551278802847184</v>
       </c>
       <c r="Q16">
-        <v>0.01916098236</v>
+        <v>0.4649535720060001</v>
       </c>
       <c r="R16">
-        <v>0.17244884124</v>
+        <v>4.184582148054001</v>
       </c>
       <c r="S16">
-        <v>0.0002035338618430436</v>
+        <v>0.005722061935757646</v>
       </c>
       <c r="T16">
-        <v>0.0002035338618430437</v>
+        <v>0.005722061935757647</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.379094333333333</v>
+        <v>1.483361</v>
       </c>
       <c r="H17">
-        <v>7.137283</v>
+        <v>4.450083</v>
       </c>
       <c r="I17">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J17">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,43 +1491,43 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9048976666666667</v>
+        <v>1.673665666666666</v>
       </c>
       <c r="N17">
-        <v>2.714693</v>
+        <v>5.020996999999999</v>
       </c>
       <c r="O17">
-        <v>0.1425809899086412</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="P17">
-        <v>0.1425809899086412</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="Q17">
-        <v>2.152836911013222</v>
+        <v>2.482650376972333</v>
       </c>
       <c r="R17">
-        <v>19.375532199119</v>
+        <v>22.343853392751</v>
       </c>
       <c r="S17">
-        <v>0.02286809737539834</v>
+        <v>0.03055332849810741</v>
       </c>
       <c r="T17">
-        <v>0.02286809737539836</v>
+        <v>0.03055332849810742</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,60 +1535,60 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.379094333333333</v>
+        <v>1.483361</v>
       </c>
       <c r="H18">
-        <v>7.137283</v>
+        <v>4.450083</v>
       </c>
       <c r="I18">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J18">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>2.499979666666666</v>
+        <v>0.1246176666666667</v>
       </c>
       <c r="N18">
-        <v>7.499938999999999</v>
+        <v>0.373853</v>
       </c>
       <c r="O18">
-        <v>0.3939114761317116</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="P18">
-        <v>0.3939114761317116</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="Q18">
-        <v>5.947687458415222</v>
+        <v>0.1848529866443334</v>
       </c>
       <c r="R18">
-        <v>53.529187125737</v>
+        <v>1.663676879799</v>
       </c>
       <c r="S18">
-        <v>0.06317816981940415</v>
+        <v>0.002274937331968721</v>
       </c>
       <c r="T18">
-        <v>0.06317816981940416</v>
+        <v>0.002274937331968721</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.379094333333333</v>
+        <v>1.483361</v>
       </c>
       <c r="H19">
-        <v>7.137283</v>
+        <v>4.450083</v>
       </c>
       <c r="I19">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J19">
-        <v>0.1603867204881316</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.316536</v>
+        <v>0.1322436666666667</v>
       </c>
       <c r="N19">
-        <v>0.949608</v>
+        <v>0.396731</v>
       </c>
       <c r="O19">
-        <v>0.04987527085573395</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="P19">
-        <v>0.04987527085573395</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="Q19">
-        <v>0.753069003896</v>
+        <v>0.1961650976303334</v>
       </c>
       <c r="R19">
-        <v>6.777621035064</v>
+        <v>1.765485878673</v>
       </c>
       <c r="S19">
-        <v>0.007999331126008456</v>
+        <v>0.002414152521577419</v>
       </c>
       <c r="T19">
-        <v>0.007999331126008459</v>
+        <v>0.002414152521577419</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H20">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.464842666666667</v>
+        <v>0.9024219999999999</v>
       </c>
       <c r="N20">
-        <v>7.394528</v>
+        <v>2.707266</v>
       </c>
       <c r="O20">
-        <v>0.3883750840876537</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="P20">
-        <v>0.3883750840876537</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="Q20">
-        <v>5.864093220824889</v>
+        <v>0.2833599063853333</v>
       </c>
       <c r="R20">
-        <v>52.776838987424</v>
+        <v>2.550239157468</v>
       </c>
       <c r="S20">
-        <v>0.06229020605612111</v>
+        <v>0.00348723621468692</v>
       </c>
       <c r="T20">
-        <v>0.06229020605612113</v>
+        <v>0.00348723621468692</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,75 +1706,75 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H21">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.160296</v>
+        <v>2.499979666666666</v>
       </c>
       <c r="N21">
-        <v>0.480888</v>
+        <v>7.499938999999999</v>
       </c>
       <c r="O21">
-        <v>0.02525717901625954</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="P21">
-        <v>0.02525717901625954</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="Q21">
-        <v>0.381359305256</v>
+        <v>0.7849919486802223</v>
       </c>
       <c r="R21">
-        <v>3.432233747304</v>
+        <v>7.064927538121999</v>
       </c>
       <c r="S21">
-        <v>0.00405091611119952</v>
+        <v>0.009660690485804795</v>
       </c>
       <c r="T21">
-        <v>0.004050916111199522</v>
+        <v>0.009660690485804795</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1783,60 +1783,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.1305996666666666</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H22">
-        <v>0.391799</v>
+        <v>0.941998</v>
       </c>
       <c r="I22">
-        <v>0.008804380700685325</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J22">
-        <v>0.008804380700685326</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.9048976666666667</v>
+        <v>0.3134460000000001</v>
       </c>
       <c r="N22">
-        <v>2.714693</v>
+        <v>0.9403380000000001</v>
       </c>
       <c r="O22">
-        <v>0.1425809899086412</v>
+        <v>0.05551278802847185</v>
       </c>
       <c r="P22">
-        <v>0.1425809899086412</v>
+        <v>0.05551278802847184</v>
       </c>
       <c r="Q22">
-        <v>0.1181793336341111</v>
+        <v>0.09842183503600002</v>
       </c>
       <c r="R22">
-        <v>1.063614002707</v>
+        <v>0.8857965153240002</v>
       </c>
       <c r="S22">
-        <v>0.00125533731583625</v>
+        <v>0.001211251767519804</v>
       </c>
       <c r="T22">
-        <v>0.00125533731583625</v>
+        <v>0.001211251767519804</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.1305996666666666</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H23">
-        <v>0.391799</v>
+        <v>0.941998</v>
       </c>
       <c r="I23">
-        <v>0.008804380700685325</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J23">
-        <v>0.008804380700685326</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,42 +1863,42 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.499979666666666</v>
+        <v>1.673665666666666</v>
       </c>
       <c r="N23">
-        <v>7.499938999999999</v>
+        <v>5.020996999999999</v>
       </c>
       <c r="O23">
-        <v>0.3939114761317116</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="P23">
-        <v>0.3939114761317116</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="Q23">
-        <v>0.326496511140111</v>
+        <v>0.5255299035562222</v>
       </c>
       <c r="R23">
-        <v>2.938468600260999</v>
+        <v>4.729769132005999</v>
       </c>
       <c r="S23">
-        <v>0.00346814659823251</v>
+        <v>0.006467558995767088</v>
       </c>
       <c r="T23">
-        <v>0.00346814659823251</v>
+        <v>0.006467558995767089</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,60 +1907,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.1305996666666666</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H24">
-        <v>0.391799</v>
+        <v>0.941998</v>
       </c>
       <c r="I24">
-        <v>0.008804380700685325</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J24">
-        <v>0.008804380700685326</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.316536</v>
+        <v>0.1246176666666667</v>
       </c>
       <c r="N24">
-        <v>0.949608</v>
+        <v>0.373853</v>
       </c>
       <c r="O24">
-        <v>0.04987527085573395</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="P24">
-        <v>0.04987527085573395</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="Q24">
-        <v>0.04133949608799999</v>
+        <v>0.0391298642548889</v>
       </c>
       <c r="R24">
-        <v>0.372055464792</v>
+        <v>0.352168778294</v>
       </c>
       <c r="S24">
-        <v>0.0004391208721636772</v>
+        <v>0.0004815609993880724</v>
       </c>
       <c r="T24">
-        <v>0.0004391208721636773</v>
+        <v>0.0004815609993880724</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1969,46 +1969,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.1305996666666666</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H25">
-        <v>0.391799</v>
+        <v>0.941998</v>
       </c>
       <c r="I25">
-        <v>0.008804380700685325</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J25">
-        <v>0.008804380700685326</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>2.464842666666667</v>
+        <v>0.1322436666666667</v>
       </c>
       <c r="N25">
-        <v>7.394528</v>
+        <v>0.396731</v>
       </c>
       <c r="O25">
-        <v>0.3883750840876537</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="P25">
-        <v>0.3883750840876537</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="Q25">
-        <v>0.3219076306524444</v>
+        <v>0.04152442317088889</v>
       </c>
       <c r="R25">
-        <v>2.897168675872</v>
+        <v>0.373719808538</v>
       </c>
       <c r="S25">
-        <v>0.003419402094968378</v>
+        <v>0.0005110302093288789</v>
       </c>
       <c r="T25">
-        <v>0.003419402094968379</v>
+        <v>0.000511030209328879</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,75 +2016,75 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H26">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I26">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J26">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.160296</v>
+        <v>0.9024219999999999</v>
       </c>
       <c r="N26">
-        <v>0.480888</v>
+        <v>2.707266</v>
       </c>
       <c r="O26">
-        <v>0.02525717901625954</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="P26">
-        <v>0.02525717901625954</v>
+        <v>0.1598232588650983</v>
       </c>
       <c r="Q26">
-        <v>0.02093460416799999</v>
+        <v>0.2082576402793333</v>
       </c>
       <c r="R26">
-        <v>0.188411437512</v>
+        <v>1.874318762514</v>
       </c>
       <c r="S26">
-        <v>0.0002223738194845098</v>
+        <v>0.002562972279429447</v>
       </c>
       <c r="T26">
-        <v>0.0002223738194845099</v>
+        <v>0.002562972279429447</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.4573603333333334</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H27">
-        <v>1.372081</v>
+        <v>0.692329</v>
       </c>
       <c r="I27">
-        <v>0.03083296148325295</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J27">
-        <v>0.03083296148325296</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,42 +2111,42 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.9048976666666667</v>
+        <v>2.499979666666666</v>
       </c>
       <c r="N27">
-        <v>2.714693</v>
+        <v>7.499938999999999</v>
       </c>
       <c r="O27">
-        <v>0.1425809899086412</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="P27">
-        <v>0.1425809899086412</v>
+        <v>0.4427583740457889</v>
       </c>
       <c r="Q27">
-        <v>0.4138642984592223</v>
+        <v>0.5769361408812221</v>
       </c>
       <c r="R27">
-        <v>3.724778686133</v>
+        <v>5.192425267930999</v>
       </c>
       <c r="S27">
-        <v>0.004396194170097212</v>
+        <v>0.007100202105892738</v>
       </c>
       <c r="T27">
-        <v>0.004396194170097213</v>
+        <v>0.007100202105892738</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2155,57 +2155,57 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.4573603333333334</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H28">
-        <v>1.372081</v>
+        <v>0.692329</v>
       </c>
       <c r="I28">
-        <v>0.03083296148325295</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J28">
-        <v>0.03083296148325296</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>2.499979666666666</v>
+        <v>0.3134460000000001</v>
       </c>
       <c r="N28">
-        <v>7.499938999999999</v>
+        <v>0.9403380000000001</v>
       </c>
       <c r="O28">
-        <v>0.3939114761317116</v>
+        <v>0.05551278802847185</v>
       </c>
       <c r="P28">
-        <v>0.3939114761317116</v>
+        <v>0.05551278802847184</v>
       </c>
       <c r="Q28">
-        <v>1.143391533673222</v>
+        <v>0.07233591857800001</v>
       </c>
       <c r="R28">
-        <v>10.290523803059</v>
+        <v>0.6510232672020001</v>
       </c>
       <c r="S28">
-        <v>0.01214545737138038</v>
+        <v>0.0008902192201631197</v>
       </c>
       <c r="T28">
-        <v>0.01214545737138038</v>
+        <v>0.0008902192201631195</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -2217,57 +2217,57 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.4573603333333334</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H29">
-        <v>1.372081</v>
+        <v>0.692329</v>
       </c>
       <c r="I29">
-        <v>0.03083296148325295</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J29">
-        <v>0.03083296148325296</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.316536</v>
+        <v>1.673665666666666</v>
       </c>
       <c r="N29">
-        <v>0.949608</v>
+        <v>5.020996999999999</v>
       </c>
       <c r="O29">
-        <v>0.04987527085573395</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="P29">
-        <v>0.04987527085573395</v>
+        <v>0.2964142065433844</v>
       </c>
       <c r="Q29">
-        <v>0.144771010472</v>
+        <v>0.3862424257792222</v>
       </c>
       <c r="R29">
-        <v>1.302939094248</v>
+        <v>3.476181832012999</v>
       </c>
       <c r="S29">
-        <v>0.001537802305261653</v>
+        <v>0.004753384457271068</v>
       </c>
       <c r="T29">
-        <v>0.001537802305261654</v>
+        <v>0.004753384457271068</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -2279,57 +2279,57 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.4573603333333334</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H30">
-        <v>1.372081</v>
+        <v>0.692329</v>
       </c>
       <c r="I30">
-        <v>0.03083296148325295</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J30">
-        <v>0.03083296148325296</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>2.464842666666667</v>
+        <v>0.1246176666666667</v>
       </c>
       <c r="N30">
-        <v>7.394528</v>
+        <v>0.373853</v>
       </c>
       <c r="O30">
-        <v>0.3883750840876537</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="P30">
-        <v>0.3883750840876537</v>
+        <v>0.02207038569408902</v>
       </c>
       <c r="Q30">
-        <v>1.127321263640889</v>
+        <v>0.02875880818188889</v>
       </c>
       <c r="R30">
-        <v>10.145891372768</v>
+        <v>0.258829273637</v>
       </c>
       <c r="S30">
-        <v>0.01197475400872975</v>
+        <v>0.0003539271263265366</v>
       </c>
       <c r="T30">
-        <v>0.01197475400872976</v>
+        <v>0.0003539271263265365</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.4573603333333334</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H31">
-        <v>1.372081</v>
+        <v>0.692329</v>
       </c>
       <c r="I31">
-        <v>0.03083296148325295</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J31">
-        <v>0.03083296148325296</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.160296</v>
+        <v>0.1322436666666667</v>
       </c>
       <c r="N31">
-        <v>0.480888</v>
+        <v>0.396731</v>
       </c>
       <c r="O31">
-        <v>0.02525717901625954</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="P31">
-        <v>0.02525717901625954</v>
+        <v>0.02342098682316748</v>
       </c>
       <c r="Q31">
-        <v>0.073313031992</v>
+        <v>0.03051870849988889</v>
       </c>
       <c r="R31">
-        <v>0.659817287928</v>
+        <v>0.274668376499</v>
       </c>
       <c r="S31">
-        <v>0.000778753627783955</v>
+        <v>0.0003755857589872307</v>
       </c>
       <c r="T31">
-        <v>0.0007787536277839552</v>
+        <v>0.0003755857589872307</v>
       </c>
     </row>
   </sheetData>
